--- a/top_model/outputs/simulation_data.xlsx
+++ b/top_model/outputs/simulation_data.xlsx
@@ -7949,6 +7949,9 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
